--- a/data.summary.completed.xlsx
+++ b/data.summary.completed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="508">
   <si>
     <t>data.id</t>
   </si>
@@ -1555,9 +1555,6 @@
   </si>
   <si>
     <t>same ?</t>
-  </si>
-  <si>
-    <t>same</t>
   </si>
   <si>
     <t>artificial</t>
@@ -2002,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="I284" sqref="I284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9144,27 +9141,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
+    <row r="282" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="9">
         <v>1020</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="9">
         <v>161</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="9">
         <v>1000000</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282" s="9">
         <v>4</v>
       </c>
-      <c r="F282" s="2">
-        <v>0</v>
-      </c>
-      <c r="G282" s="2">
-        <v>1</v>
+      <c r="F282" s="9">
+        <v>0</v>
+      </c>
+      <c r="G282" s="9">
+        <v>1</v>
+      </c>
+      <c r="I282" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="297" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="298" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="I303" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="I304" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="I305" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="I306" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="I307" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="I308" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9836,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -10131,7 +10131,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C326" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D326" s="2">
         <v>46</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C327" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D327" s="2">
         <v>27</v>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C328" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D328" s="2">
         <v>20</v>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C329" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D329" s="2">
         <v>93</v>

--- a/data.summary.completed.xlsx
+++ b/data.summary.completed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="509">
   <si>
     <t>data.id</t>
   </si>
@@ -1570,6 +1570,9 @@
   </si>
   <si>
     <t>Livestock, pasture / Meteo / Geography / pollution / astronomy / Geology</t>
+  </si>
+  <si>
+    <t>BNG</t>
   </si>
 </sst>
 </file>
@@ -1999,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="I284" sqref="I284"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="K302" sqref="K302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2993,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -3019,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="5">
         <v>0</v>
@@ -3825,7 +3828,7 @@
         <v>8</v>
       </c>
       <c r="F68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
@@ -5735,7 +5738,7 @@
         <v>8</v>
       </c>
       <c r="F144" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" s="5">
         <v>1</v>
@@ -5761,7 +5764,7 @@
         <v>8</v>
       </c>
       <c r="F145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" s="5">
         <v>1</v>
@@ -6367,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="F169" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" s="5">
         <v>1</v>
@@ -7477,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" s="5" t="s">
         <v>474</v>
@@ -7875,26 +7878,26 @@
         <v>480</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="6">
+    <row r="231" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="5">
         <v>8910</v>
       </c>
-      <c r="B231" s="6">
+      <c r="B231" s="5">
         <v>847</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D231" s="6">
+      <c r="D231" s="5">
         <v>6574</v>
       </c>
-      <c r="E231" s="6">
+      <c r="E231" s="5">
         <v>15</v>
       </c>
-      <c r="F231" s="6">
-        <v>1</v>
-      </c>
-      <c r="G231" s="6">
+      <c r="F231" s="5">
+        <v>0</v>
+      </c>
+      <c r="G231" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7996,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" s="5" t="s">
         <v>484</v>
@@ -8639,50 +8642,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
+    <row r="262" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="9">
         <v>554</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="9">
         <v>137</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="9">
         <v>39366</v>
       </c>
-      <c r="E262" s="2">
+      <c r="E262" s="9">
         <v>10</v>
       </c>
-      <c r="F262" s="2">
-        <v>0</v>
-      </c>
-      <c r="G262" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="8">
+      <c r="F262" s="9">
+        <v>0</v>
+      </c>
+      <c r="G262" s="9">
+        <v>0</v>
+      </c>
+      <c r="I262" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="9">
         <v>1042</v>
       </c>
-      <c r="B263" s="8">
+      <c r="B263" s="9">
         <v>251</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D263" s="8">
+      <c r="D263" s="9">
         <v>39366</v>
       </c>
-      <c r="E263" s="8">
+      <c r="E263" s="9">
         <v>10</v>
       </c>
-      <c r="F263" s="8">
-        <v>1</v>
-      </c>
-      <c r="G263" s="8">
-        <v>0</v>
+      <c r="F263" s="9">
+        <v>0</v>
+      </c>
+      <c r="G263" s="9">
+        <v>0</v>
+      </c>
+      <c r="I263" s="9" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -8878,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="G271" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" s="5" t="s">
         <v>495</v>
@@ -9962,6 +9971,9 @@
       <c r="G314" s="9">
         <v>0</v>
       </c>
+      <c r="I314" s="9" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="315" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9">
@@ -9985,6 +9997,9 @@
       <c r="G315" s="9">
         <v>0</v>
       </c>
+      <c r="I315" s="9" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="316" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="9">
@@ -10008,6 +10023,9 @@
       <c r="G316" s="9">
         <v>0</v>
       </c>
+      <c r="I316" s="9" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="317" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="9">
@@ -10031,6 +10049,9 @@
       <c r="G317" s="9">
         <v>0</v>
       </c>
+      <c r="I317" s="9" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="318" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="9">
@@ -10054,6 +10075,9 @@
       <c r="G318" s="9">
         <v>0</v>
       </c>
+      <c r="I318" s="9" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="319" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="9">
@@ -10077,6 +10101,9 @@
       <c r="G319" s="9">
         <v>0</v>
       </c>
+      <c r="I319" s="9" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="320" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="9">
@@ -10099,6 +10126,9 @@
       </c>
       <c r="G320" s="9">
         <v>0</v>
+      </c>
+      <c r="I320" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.summary.completed.xlsx
+++ b/data.summary.completed.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="508">
   <si>
     <t>data.id</t>
   </si>
@@ -1128,12 +1128,6 @@
     <t>NAN</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
     <t>basketball</t>
   </si>
   <si>
@@ -1573,6 +1567,9 @@
   </si>
   <si>
     <t>BNG</t>
+  </si>
+  <si>
+    <t>idx</t>
   </si>
 </sst>
 </file>
@@ -2002,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="K302" sqref="K302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2019,6 +2016,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>331</v>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>341</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>336</v>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>336</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>336</v>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>352</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>336</v>
@@ -2696,7 +2696,7 @@
         <v>328</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2719,7 +2719,7 @@
         <v>328</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2742,7 +2742,7 @@
         <v>328</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
         <v>328</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>355</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>357</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>358</v>
@@ -3080,7 +3080,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3207,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3236,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3265,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3291,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3372,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3496,10 +3496,10 @@
         <v>1</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3938,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3987,7 +3987,7 @@
         <v>328</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4221,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4354,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4700,7 +4700,7 @@
         <v>359</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -5055,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5271,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -5349,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
         <v>328</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5398,7 +5398,7 @@
         <v>328</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -5421,7 +5421,7 @@
         <v>328</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
         <v>328</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5574,7 +5574,7 @@
         <v>139</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5894,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6119,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="H159" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -6220,10 +6220,10 @@
         <v>0</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6347,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6569,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -6716,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6909,10 +6909,10 @@
         <v>3</v>
       </c>
       <c r="F191" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7076,10 +7076,10 @@
         <v>6</v>
       </c>
       <c r="F198" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -7105,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -7200,10 +7200,10 @@
         <v>0</v>
       </c>
       <c r="H203" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="204" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7300,11 +7300,11 @@
       <c r="E207" s="9">
         <v>62</v>
       </c>
-      <c r="F207" s="9" t="s">
-        <v>360</v>
+      <c r="F207" s="9">
+        <v>0</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="208" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7330,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="213" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="H213" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="214" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="217" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="H228" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I228" s="8" t="s">
         <v>230</v>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="231" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7947,10 +7947,10 @@
         <v>0</v>
       </c>
       <c r="H233" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="I239" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="243" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="247" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="251" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8400,10 +8400,10 @@
         <v>0</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="252" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8422,11 +8422,11 @@
       <c r="E252" s="9">
         <v>12</v>
       </c>
-      <c r="F252" s="9" t="s">
-        <v>361</v>
+      <c r="F252" s="9">
+        <v>0</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -8468,11 +8468,11 @@
       <c r="E254" s="9">
         <v>33</v>
       </c>
-      <c r="F254" s="9" t="s">
-        <v>360</v>
+      <c r="F254" s="9">
+        <v>0</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="I262" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="I268" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -8939,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="H273" s="23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8968,10 +8968,10 @@
         <v>0</v>
       </c>
       <c r="H274" s="24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I274" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8997,10 +8997,10 @@
         <v>1</v>
       </c>
       <c r="H275" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I275" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="I277" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -9173,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="I287" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9458,10 +9458,10 @@
         <v>10</v>
       </c>
       <c r="F294" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -9504,13 +9504,13 @@
         <v>14</v>
       </c>
       <c r="F296" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G296" s="9">
         <v>0</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="297" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9530,13 +9530,13 @@
         <v>14</v>
       </c>
       <c r="F297" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" s="9">
         <v>0</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="298" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -9683,13 +9683,13 @@
         <v>20</v>
       </c>
       <c r="F303" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303" s="9">
         <v>0</v>
       </c>
       <c r="I303" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9709,13 +9709,13 @@
         <v>20</v>
       </c>
       <c r="F304" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G304" s="9">
         <v>0</v>
       </c>
       <c r="I304" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="I305" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="I306" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9787,13 +9787,13 @@
         <v>23</v>
       </c>
       <c r="F307" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307" s="9">
         <v>0</v>
       </c>
       <c r="I307" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9813,13 +9813,13 @@
         <v>23</v>
       </c>
       <c r="F308" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G308" s="9">
         <v>0</v>
       </c>
       <c r="I308" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9839,13 +9839,13 @@
         <v>23</v>
       </c>
       <c r="F309" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G309" s="9">
         <v>0</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9865,13 +9865,13 @@
         <v>28</v>
       </c>
       <c r="F310" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G310" s="9">
         <v>0</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9891,13 +9891,13 @@
         <v>28</v>
       </c>
       <c r="F311" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G311" s="9">
         <v>0</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9917,13 +9917,13 @@
         <v>30</v>
       </c>
       <c r="F312" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312" s="9">
         <v>0</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9992,13 +9992,13 @@
         <v>35</v>
       </c>
       <c r="F315" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G315" s="9">
         <v>0</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10024,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="I317" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="I319" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="I320" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -10156,12 +10156,12 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C325" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C326" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D326" s="2">
         <v>46</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C327" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D327" s="2">
         <v>27</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C328" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D328" s="2">
         <v>20</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C329" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D329" s="2">
         <v>93</v>
